--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02857142857142796</v>
+        <v>0.199694501984579</v>
       </c>
       <c r="C2">
-        <v>0.7571428571428517</v>
+        <v>1.011608396774954</v>
       </c>
       <c r="D2">
-        <v>1.618571428571423</v>
+        <v>2.462918637783109</v>
       </c>
       <c r="E2">
-        <v>1.272230886502691</v>
+        <v>1.569368866067856</v>
       </c>
       <c r="F2">
-        <v>1.319923407701294</v>
+        <v>1.615372555534037</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03076923076922793</v>
+        <v>0.181859565044813</v>
       </c>
       <c r="C3">
-        <v>0.8923076923076908</v>
+        <v>1.06583629132514</v>
       </c>
       <c r="D3">
-        <v>2.001538461538451</v>
+        <v>2.354939032676854</v>
       </c>
       <c r="E3">
-        <v>1.414757386104929</v>
+        <v>1.53458106096643</v>
       </c>
       <c r="F3">
-        <v>1.472177873868399</v>
+        <v>1.585987066640765</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0250000000000045</v>
+        <v>0.392354498814844</v>
       </c>
       <c r="C4">
-        <v>0.8416666666666673</v>
+        <v>1.092524195814124</v>
       </c>
       <c r="D4">
-        <v>1.390833333333325</v>
+        <v>3.401579278512719</v>
       </c>
       <c r="E4">
-        <v>1.179335971355629</v>
+        <v>1.84433708375468</v>
       </c>
       <c r="F4">
-        <v>1.231499455578808</v>
+        <v>1.882253164048335</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.07272727272726601</v>
+        <v>0.4189316725569809</v>
       </c>
       <c r="C5">
-        <v>0.7818181818181839</v>
+        <v>1.35908918265491</v>
       </c>
       <c r="D5">
-        <v>1.32727272727272</v>
+        <v>4.053754439716902</v>
       </c>
       <c r="E5">
-        <v>1.152073229995698</v>
+        <v>2.013393761715999</v>
       </c>
       <c r="F5">
-        <v>1.205894613215355</v>
+        <v>2.065448077970023</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.139999999999992</v>
+        <v>0.5131610716377353</v>
       </c>
       <c r="C6">
-        <v>0.9199999999999988</v>
+        <v>1.045711216584711</v>
       </c>
       <c r="D6">
-        <v>1.737999999999984</v>
+        <v>2.987355008846897</v>
       </c>
       <c r="E6">
-        <v>1.318332279814154</v>
+        <v>1.728396658422741</v>
       </c>
       <c r="F6">
-        <v>1.381786283523367</v>
+        <v>1.739738397768312</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05714285714286608</v>
+        <v>0.004917215416235725</v>
       </c>
       <c r="C7">
-        <v>0.8000000000000033</v>
+        <v>0.7811863174655274</v>
       </c>
       <c r="D7">
-        <v>1.359999999999999</v>
+        <v>1.08329812457537</v>
       </c>
       <c r="E7">
-        <v>1.16619037896906</v>
+        <v>1.040816085855407</v>
       </c>
       <c r="F7">
-        <v>1.258116506074513</v>
+        <v>1.103939848344968</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.5249999999999915</v>
+        <v>-0.3858263734312975</v>
       </c>
       <c r="C8">
-        <v>0.5249999999999915</v>
+        <v>0.875567608838748</v>
       </c>
       <c r="D8">
-        <v>0.4124999999999865</v>
+        <v>1.133368546339351</v>
       </c>
       <c r="E8">
-        <v>0.642261628933246</v>
+        <v>1.064597833146091</v>
       </c>
       <c r="F8">
-        <v>0.4272001872658694</v>
+        <v>1.086925879296765</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-1.09999999999998</v>
+        <v>-0.8536607533201513</v>
       </c>
       <c r="C9">
-        <v>1.09999999999998</v>
+        <v>0.8536607533201513</v>
       </c>
       <c r="D9">
-        <v>1.209999999999956</v>
+        <v>0.9321950237660799</v>
       </c>
       <c r="E9">
-        <v>1.09999999999998</v>
+        <v>0.9655024721698438</v>
+      </c>
+      <c r="F9">
+        <v>0.5524377910773552</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.265633061926664</v>
+      </c>
+      <c r="C10">
+        <v>0.265633061926664</v>
+      </c>
+      <c r="D10">
+        <v>0.07056092358853493</v>
+      </c>
+      <c r="E10">
+        <v>0.265633061926664</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.199694501984579</v>
+        <v>-0.02857142857142796</v>
       </c>
       <c r="C2">
-        <v>1.011608396774954</v>
+        <v>0.7571428571428517</v>
       </c>
       <c r="D2">
-        <v>2.462918637783109</v>
+        <v>1.618571428571423</v>
       </c>
       <c r="E2">
-        <v>1.569368866067856</v>
+        <v>1.272230886502691</v>
       </c>
       <c r="F2">
-        <v>1.615372555534037</v>
+        <v>1.319923407701294</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.181859565044813</v>
+        <v>-0.03076923076922793</v>
       </c>
       <c r="C3">
-        <v>1.06583629132514</v>
+        <v>0.8923076923076908</v>
       </c>
       <c r="D3">
-        <v>2.354939032676854</v>
+        <v>2.001538461538451</v>
       </c>
       <c r="E3">
-        <v>1.53458106096643</v>
+        <v>1.414757386104929</v>
       </c>
       <c r="F3">
-        <v>1.585987066640765</v>
+        <v>1.472177873868399</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -493,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.392354498814844</v>
+        <v>0.0250000000000045</v>
       </c>
       <c r="C4">
-        <v>1.092524195814124</v>
+        <v>0.8416666666666673</v>
       </c>
       <c r="D4">
-        <v>3.401579278512719</v>
+        <v>1.390833333333325</v>
       </c>
       <c r="E4">
-        <v>1.84433708375468</v>
+        <v>1.179335971355629</v>
       </c>
       <c r="F4">
-        <v>1.882253164048335</v>
+        <v>1.231499455578808</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -516,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4189316725569809</v>
+        <v>-0.07272727272726601</v>
       </c>
       <c r="C5">
-        <v>1.35908918265491</v>
+        <v>0.7818181818181839</v>
       </c>
       <c r="D5">
-        <v>4.053754439716902</v>
+        <v>1.32727272727272</v>
       </c>
       <c r="E5">
-        <v>2.013393761715999</v>
+        <v>1.152073229995698</v>
       </c>
       <c r="F5">
-        <v>2.065448077970023</v>
+        <v>1.205894613215355</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -539,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5131610716377353</v>
+        <v>-0.139999999999992</v>
       </c>
       <c r="C6">
-        <v>1.045711216584711</v>
+        <v>0.9199999999999988</v>
       </c>
       <c r="D6">
-        <v>2.987355008846897</v>
+        <v>1.737999999999984</v>
       </c>
       <c r="E6">
-        <v>1.728396658422741</v>
+        <v>1.318332279814154</v>
       </c>
       <c r="F6">
-        <v>1.739738397768312</v>
+        <v>1.381786283523367</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -562,19 +562,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.004917215416235725</v>
+        <v>0.1333333333333415</v>
       </c>
       <c r="C7">
-        <v>0.7811863174655274</v>
+        <v>0.7111111111111149</v>
       </c>
       <c r="D7">
-        <v>1.08329812457537</v>
+        <v>1.12888888888889</v>
       </c>
       <c r="E7">
-        <v>1.040816085855407</v>
+        <v>1.062491830033949</v>
       </c>
       <c r="F7">
-        <v>1.103939848344968</v>
+        <v>1.118033988749894</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.3858263734312975</v>
+        <v>-0.3499999999999896</v>
       </c>
       <c r="C8">
-        <v>0.875567608838748</v>
+        <v>0.5166666666666609</v>
       </c>
       <c r="D8">
-        <v>1.133368546339351</v>
+        <v>0.3583333333333243</v>
       </c>
       <c r="E8">
-        <v>1.064597833146091</v>
+        <v>0.5986094998689248</v>
       </c>
       <c r="F8">
-        <v>1.086925879296765</v>
+        <v>0.5319774431308135</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.8536607533201513</v>
+        <v>-0.2999999999999924</v>
       </c>
       <c r="C9">
-        <v>0.8536607533201513</v>
+        <v>0.7000000000000076</v>
       </c>
       <c r="D9">
-        <v>0.9321950237660799</v>
+        <v>0.5766666666666664</v>
       </c>
       <c r="E9">
-        <v>0.9655024721698438</v>
+        <v>0.7593857166596343</v>
       </c>
       <c r="F9">
-        <v>0.5524377910773552</v>
+        <v>0.854400374531757</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.265633061926664</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="C10">
-        <v>0.265633061926664</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="D10">
-        <v>0.07056092358853493</v>
+        <v>0.3600000000000273</v>
       </c>
       <c r="E10">
-        <v>0.265633061926664</v>
+        <v>0.6000000000000227</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02857142857142796</v>
+        <v>-0.02759765538578432</v>
       </c>
       <c r="C2">
-        <v>0.7571428571428517</v>
+        <v>0.5993211969665078</v>
       </c>
       <c r="D2">
-        <v>1.618571428571423</v>
+        <v>0.7764809546060641</v>
       </c>
       <c r="E2">
-        <v>1.272230886502691</v>
+        <v>0.881181567332218</v>
       </c>
       <c r="F2">
-        <v>1.319923407701294</v>
+        <v>0.8895131873692134</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03076923076922793</v>
+        <v>0.09824497858667457</v>
       </c>
       <c r="C3">
-        <v>0.8923076923076908</v>
+        <v>0.6346353876862429</v>
       </c>
       <c r="D3">
-        <v>2.001538461538451</v>
+        <v>0.9122639460283238</v>
       </c>
       <c r="E3">
-        <v>1.414757386104929</v>
+        <v>0.9551250944396361</v>
       </c>
       <c r="F3">
-        <v>1.472177873868399</v>
+        <v>0.9597043923121814</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0250000000000045</v>
+        <v>-0.001319298517514361</v>
       </c>
       <c r="C4">
-        <v>0.8416666666666673</v>
+        <v>0.6476906327130449</v>
       </c>
       <c r="D4">
-        <v>1.390833333333325</v>
+        <v>0.7146872890618677</v>
       </c>
       <c r="E4">
-        <v>1.179335971355629</v>
+        <v>0.8453917961879378</v>
       </c>
       <c r="F4">
-        <v>1.231499455578808</v>
+        <v>0.8541515268229536</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.07272727272726601</v>
+        <v>0.1228341545534477</v>
       </c>
       <c r="C5">
-        <v>0.7818181818181839</v>
+        <v>0.6897645129407867</v>
       </c>
       <c r="D5">
-        <v>1.32727272727272</v>
+        <v>0.839119603502874</v>
       </c>
       <c r="E5">
-        <v>1.152073229995698</v>
+        <v>0.9160347174113402</v>
       </c>
       <c r="F5">
-        <v>1.205894613215355</v>
+        <v>0.917367950390179</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.139999999999992</v>
+        <v>0.04626027039139741</v>
       </c>
       <c r="C6">
-        <v>0.9199999999999988</v>
+        <v>0.6022393271950429</v>
       </c>
       <c r="D6">
-        <v>1.737999999999984</v>
+        <v>0.7064898076028564</v>
       </c>
       <c r="E6">
-        <v>1.318332279814154</v>
+        <v>0.8405294805078858</v>
       </c>
       <c r="F6">
-        <v>1.381786283523367</v>
+        <v>0.8483287965471219</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1333333333333415</v>
+        <v>0.1135060740419775</v>
       </c>
       <c r="C7">
-        <v>0.7111111111111149</v>
+        <v>0.7098892706801739</v>
       </c>
       <c r="D7">
-        <v>1.12888888888889</v>
+        <v>0.8783339292678302</v>
       </c>
       <c r="E7">
-        <v>1.062491830033949</v>
+        <v>0.9371947125692879</v>
       </c>
       <c r="F7">
-        <v>1.118033988749894</v>
+        <v>0.940575637214629</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.3499999999999896</v>
+        <v>0.06286716272461017</v>
       </c>
       <c r="C8">
-        <v>0.5166666666666609</v>
+        <v>0.7192557759049942</v>
       </c>
       <c r="D8">
-        <v>0.3583333333333243</v>
+        <v>0.9934777917745472</v>
       </c>
       <c r="E8">
-        <v>0.5986094998689248</v>
+        <v>0.9967335610756504</v>
       </c>
       <c r="F8">
-        <v>0.5319774431308135</v>
+        <v>1.005989427279836</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.2999999999999924</v>
+        <v>0.1466813223655823</v>
       </c>
       <c r="C9">
-        <v>0.7000000000000076</v>
+        <v>0.7501106339929442</v>
       </c>
       <c r="D9">
-        <v>0.5766666666666664</v>
+        <v>0.9202103855659967</v>
       </c>
       <c r="E9">
-        <v>0.7593857166596343</v>
+        <v>0.959275969450917</v>
       </c>
       <c r="F9">
-        <v>0.854400374531757</v>
+        <v>0.9589550867376859</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.6000000000000227</v>
+        <v>0.07202425349984963</v>
       </c>
       <c r="C10">
-        <v>0.6000000000000227</v>
+        <v>0.7064625585386706</v>
       </c>
       <c r="D10">
-        <v>0.3600000000000273</v>
+        <v>0.795197501037768</v>
       </c>
       <c r="E10">
-        <v>0.6000000000000227</v>
+        <v>0.8917384712110205</v>
+      </c>
+      <c r="F10">
+        <v>0.8993440776696643</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.08705267901537297</v>
+      </c>
+      <c r="C11">
+        <v>0.729473168299468</v>
+      </c>
+      <c r="D11">
+        <v>0.8438328393602245</v>
+      </c>
+      <c r="E11">
+        <v>0.9186037444732219</v>
+      </c>
+      <c r="F11">
+        <v>0.9255544964036263</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02759765538578432</v>
+        <v>0.1656278310671722</v>
       </c>
       <c r="C2">
-        <v>0.5993211969665078</v>
+        <v>0.4719345280589418</v>
       </c>
       <c r="D2">
-        <v>0.7764809546060641</v>
+        <v>0.5088034263367071</v>
       </c>
       <c r="E2">
-        <v>0.881181567332218</v>
+        <v>0.7133045817438067</v>
       </c>
       <c r="F2">
-        <v>0.8895131873692134</v>
+        <v>0.7022190543561216</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.09824497858667457</v>
+        <v>-0.01237757133353611</v>
       </c>
       <c r="C3">
-        <v>0.6346353876862429</v>
+        <v>0.5576922206168767</v>
       </c>
       <c r="D3">
-        <v>0.9122639460283238</v>
+        <v>0.4968421630465693</v>
       </c>
       <c r="E3">
-        <v>0.9551250944396361</v>
+        <v>0.7048703164742924</v>
       </c>
       <c r="F3">
-        <v>0.9597043923121814</v>
+        <v>0.7135167711720684</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.001319298517514361</v>
+        <v>0.182806223233343</v>
       </c>
       <c r="C4">
-        <v>0.6476906327130449</v>
+        <v>0.5882942346078044</v>
       </c>
       <c r="D4">
-        <v>0.7146872890618677</v>
+        <v>0.5943299325354084</v>
       </c>
       <c r="E4">
-        <v>0.8453917961879378</v>
+        <v>0.7709279684480311</v>
       </c>
       <c r="F4">
-        <v>0.8541515268229536</v>
+        <v>0.7584814905927938</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1228341545534477</v>
+        <v>0.04193216340107105</v>
       </c>
       <c r="C5">
-        <v>0.6897645129407867</v>
+        <v>0.6060728462292108</v>
       </c>
       <c r="D5">
-        <v>0.839119603502874</v>
+        <v>0.5212737734367096</v>
       </c>
       <c r="E5">
-        <v>0.9160347174113402</v>
+        <v>0.7219929178577236</v>
       </c>
       <c r="F5">
-        <v>0.917367950390179</v>
+        <v>0.7301964987385136</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04626027039139741</v>
+        <v>0.1893694583833012</v>
       </c>
       <c r="C6">
-        <v>0.6022393271950429</v>
+        <v>0.6581235952936254</v>
       </c>
       <c r="D6">
-        <v>0.7064898076028564</v>
+        <v>0.6823089728457381</v>
       </c>
       <c r="E6">
-        <v>0.8405294805078858</v>
+        <v>0.8260199591085787</v>
       </c>
       <c r="F6">
-        <v>0.8483287965471219</v>
+        <v>0.8148127107126543</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1135060740419775</v>
+        <v>0.09660088401069185</v>
       </c>
       <c r="C7">
-        <v>0.7098892706801739</v>
+        <v>0.5163580642747845</v>
       </c>
       <c r="D7">
-        <v>0.8783339292678302</v>
+        <v>0.4277032691171462</v>
       </c>
       <c r="E7">
-        <v>0.9371947125692879</v>
+        <v>0.6539902668367062</v>
       </c>
       <c r="F7">
-        <v>0.940575637214629</v>
+        <v>0.6557384920421035</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.06286716272461017</v>
+        <v>0.1755910946091918</v>
       </c>
       <c r="C8">
-        <v>0.7192557759049942</v>
+        <v>0.6654140680913321</v>
       </c>
       <c r="D8">
-        <v>0.9934777917745472</v>
+        <v>0.6931489096200038</v>
       </c>
       <c r="E8">
-        <v>0.9967335610756504</v>
+        <v>0.8325556495634413</v>
       </c>
       <c r="F8">
-        <v>1.005989427279836</v>
+        <v>0.8253726496230516</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1466813223655823</v>
+        <v>0.1322577806459256</v>
       </c>
       <c r="C9">
-        <v>0.7501106339929442</v>
+        <v>0.6219002833064226</v>
       </c>
       <c r="D9">
-        <v>0.9202103855659967</v>
+        <v>0.6041857322815641</v>
       </c>
       <c r="E9">
-        <v>0.959275969450917</v>
+        <v>0.7772938519514767</v>
       </c>
       <c r="F9">
-        <v>0.9589550867376859</v>
+        <v>0.7771417542528034</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07202425349984963</v>
+        <v>0.2251170054142814</v>
       </c>
       <c r="C10">
-        <v>0.7064625585386706</v>
+        <v>0.7236725851673381</v>
       </c>
       <c r="D10">
-        <v>0.795197501037768</v>
+        <v>0.8349781460265824</v>
       </c>
       <c r="E10">
-        <v>0.8917384712110205</v>
+        <v>0.9137713860843872</v>
       </c>
       <c r="F10">
-        <v>0.8993440776696643</v>
+        <v>0.8989255592700524</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.08705267901537297</v>
+        <v>0.1090013000149534</v>
       </c>
       <c r="C11">
-        <v>0.729473168299468</v>
+        <v>0.6144815156716034</v>
       </c>
       <c r="D11">
-        <v>0.8438328393602245</v>
+        <v>0.5898028043825534</v>
       </c>
       <c r="E11">
-        <v>0.9186037444732219</v>
+        <v>0.7679862006459187</v>
       </c>
       <c r="F11">
-        <v>0.9255544964036263</v>
+        <v>0.7719984251979752</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1656278310671722</v>
+        <v>0.1493061553617529</v>
       </c>
       <c r="C2">
-        <v>0.4719345280589418</v>
+        <v>1.037716627549764</v>
       </c>
       <c r="D2">
-        <v>0.5088034263367071</v>
+        <v>2.445525955610853</v>
       </c>
       <c r="E2">
-        <v>0.7133045817438067</v>
+        <v>1.563817750126546</v>
       </c>
       <c r="F2">
-        <v>0.7022190543561216</v>
+        <v>1.572163572957211</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01237757133353611</v>
+        <v>-0.0001377995884945538</v>
       </c>
       <c r="C3">
-        <v>0.5576922206168767</v>
+        <v>0.8974840057777216</v>
       </c>
       <c r="D3">
-        <v>0.4968421630465693</v>
+        <v>1.83869274992964</v>
       </c>
       <c r="E3">
-        <v>0.7048703164742924</v>
+        <v>1.355984052240158</v>
       </c>
       <c r="F3">
-        <v>0.7135167711720684</v>
+        <v>1.369750733669702</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.182806223233343</v>
+        <v>0.1305475558742287</v>
       </c>
       <c r="C4">
-        <v>0.5882942346078044</v>
+        <v>0.9634510370349124</v>
       </c>
       <c r="D4">
-        <v>0.5943299325354084</v>
+        <v>2.686943648675822</v>
       </c>
       <c r="E4">
-        <v>0.7709279684480311</v>
+        <v>1.639189936729671</v>
       </c>
       <c r="F4">
-        <v>0.7584814905927938</v>
+        <v>1.650916085543009</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.04193216340107105</v>
+        <v>0.02053268214733173</v>
       </c>
       <c r="C5">
-        <v>0.6060728462292108</v>
+        <v>0.8033519568783193</v>
       </c>
       <c r="D5">
-        <v>0.5212737734367096</v>
+        <v>1.685360403846863</v>
       </c>
       <c r="E5">
-        <v>0.7219929178577236</v>
+        <v>1.298214313527186</v>
       </c>
       <c r="F5">
-        <v>0.7301964987385136</v>
+        <v>1.311788311727695</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1893694583833012</v>
+        <v>0.1279059253806883</v>
       </c>
       <c r="C6">
-        <v>0.6581235952936254</v>
+        <v>1.069557746067552</v>
       </c>
       <c r="D6">
-        <v>0.6823089728457381</v>
+        <v>2.762993934606443</v>
       </c>
       <c r="E6">
-        <v>0.8260199591085787</v>
+        <v>1.662225596784757</v>
       </c>
       <c r="F6">
-        <v>0.8148127107126543</v>
+        <v>1.675214447118382</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.09660088401069185</v>
+        <v>0.06123152309397346</v>
       </c>
       <c r="C7">
-        <v>0.5163580642747845</v>
+        <v>0.8594512018970224</v>
       </c>
       <c r="D7">
-        <v>0.4277032691171462</v>
+        <v>1.619385894554267</v>
       </c>
       <c r="E7">
-        <v>0.6539902668367062</v>
+        <v>1.272550939866168</v>
       </c>
       <c r="F7">
-        <v>0.6557384920421035</v>
+        <v>1.285122418519449</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1755910946091918</v>
+        <v>0.1270307523583763</v>
       </c>
       <c r="C8">
-        <v>0.6654140680913321</v>
+        <v>1.050670529041093</v>
       </c>
       <c r="D8">
-        <v>0.6931489096200038</v>
+        <v>2.656576264181475</v>
       </c>
       <c r="E8">
-        <v>0.8325556495634413</v>
+        <v>1.629900691508987</v>
       </c>
       <c r="F8">
-        <v>0.8253726496230516</v>
+        <v>1.643304426965771</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1322577806459256</v>
+        <v>0.06820288831713031</v>
       </c>
       <c r="C9">
-        <v>0.6219002833064226</v>
+        <v>0.9752875536895451</v>
       </c>
       <c r="D9">
-        <v>0.6041857322815641</v>
+        <v>2.031306037983135</v>
       </c>
       <c r="E9">
-        <v>0.7772938519514767</v>
+        <v>1.425238940663331</v>
       </c>
       <c r="F9">
-        <v>0.7771417542528034</v>
+        <v>1.440064547781096</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2251170054142814</v>
+        <v>0.1569399573777606</v>
       </c>
       <c r="C10">
-        <v>0.7236725851673381</v>
+        <v>1.109713135099426</v>
       </c>
       <c r="D10">
-        <v>0.8349781460265824</v>
+        <v>2.53526159535855</v>
       </c>
       <c r="E10">
-        <v>0.9137713860843872</v>
+        <v>1.592250481349762</v>
       </c>
       <c r="F10">
-        <v>0.8989255592700524</v>
+        <v>1.603249320694302</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1090013000149534</v>
+        <v>0.1971152062210202</v>
       </c>
       <c r="C11">
-        <v>0.6144815156716034</v>
+        <v>0.8222214692082306</v>
       </c>
       <c r="D11">
-        <v>0.5898028043825534</v>
+        <v>1.593335768711567</v>
       </c>
       <c r="E11">
-        <v>0.7679862006459187</v>
+        <v>1.262274046596684</v>
       </c>
       <c r="F11">
-        <v>0.7719984251979752</v>
+        <v>1.261901558681323</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.06123152309397346</v>
+        <v>0.08022968598094522</v>
       </c>
       <c r="C7">
-        <v>0.8594512018970224</v>
+        <v>0.9401611245884408</v>
       </c>
       <c r="D7">
-        <v>1.619385894554267</v>
+        <v>1.882473483720003</v>
       </c>
       <c r="E7">
-        <v>1.272550939866168</v>
+        <v>1.372032610297584</v>
       </c>
       <c r="F7">
-        <v>1.285122418519449</v>
+        <v>1.38807073857714</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1270307523583763</v>
+        <v>0.09684414037220078</v>
       </c>
       <c r="C8">
-        <v>1.050670529041093</v>
+        <v>1.117279359203689</v>
       </c>
       <c r="D8">
-        <v>2.656576264181475</v>
+        <v>3.04125129278947</v>
       </c>
       <c r="E8">
-        <v>1.629900691508987</v>
+        <v>1.743918373316099</v>
       </c>
       <c r="F8">
-        <v>1.643304426965771</v>
+        <v>1.76524536140641</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06820288831713031</v>
+        <v>0.1091771171770269</v>
       </c>
       <c r="C9">
-        <v>0.9752875536895451</v>
+        <v>1.083714881619536</v>
       </c>
       <c r="D9">
-        <v>2.031306037983135</v>
+        <v>1.693673186052097</v>
       </c>
       <c r="E9">
-        <v>1.425238940663331</v>
+        <v>1.301411997044786</v>
       </c>
       <c r="F9">
-        <v>1.440064547781096</v>
+        <v>1.330513768253694</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1569399573777606</v>
+        <v>0.3732545068521868</v>
       </c>
       <c r="C10">
-        <v>1.109713135099426</v>
+        <v>1.052204277644287</v>
       </c>
       <c r="D10">
-        <v>2.53526159535855</v>
+        <v>1.860053869313877</v>
       </c>
       <c r="E10">
-        <v>1.592250481349762</v>
+        <v>1.363837919004262</v>
       </c>
       <c r="F10">
-        <v>1.603249320694302</v>
+        <v>1.365331286158824</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1971152062210202</v>
+        <v>0.9706231273330275</v>
       </c>
       <c r="C11">
-        <v>0.8222214692082306</v>
+        <v>1.152940683320901</v>
       </c>
       <c r="D11">
-        <v>1.593335768711567</v>
+        <v>1.587806877227315</v>
       </c>
       <c r="E11">
-        <v>1.262274046596684</v>
+        <v>1.260082091463614</v>
       </c>
       <c r="F11">
-        <v>1.261901558681323</v>
+        <v>0.8983997035796265</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
